--- a/Examples/Modern Method to Get the Full Filepath without scripts.xlsx
+++ b/Examples/Modern Method to Get the Full Filepath without scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\2023\pwsh\PsModules.dev\ExcelAnt\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB865F7-A204-43F1-B908-00B013B6B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413FCD23-423D-42C3-9AEA-32CC0E2DA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="3030" windowWidth="28200" windowHeight="17385" xr2:uid="{F0DA43F3-BB4A-4440-A099-B21F41B3FBF0}"/>
+    <workbookView xWindow="7065" yWindow="7305" windowWidth="28200" windowHeight="17385" xr2:uid="{F0DA43F3-BB4A-4440-A099-B21F41B3FBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>FullName</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Formulas</t>
+  </si>
+  <si>
+    <t>Raw Name</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -444,14 +444,14 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">CELL("filename",A1)</f>
         <v>H:\data\2023\pwsh\PsModules.dev\ExcelAnt\Examples\[Modern Method to Get the Full Filepath without scripts.xlsx]Info</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O1" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(B1)</f>
@@ -460,7 +460,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTBEFORE(
@@ -480,7 +480,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTBEFORE(CELL("filename",A1),  "\[" )</f>
@@ -494,7 +494,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.TEXTAFTER(CELL("filename",A1),  "]" )</f>
@@ -508,5 +508,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>